--- a/score_table.xlsx
+++ b/score_table.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/dri_team.mWater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1692A42D-2715-DF4D-91F6-BE830DD67895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBDB8B7-956B-7E4E-93BC-5B0221714F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="157">
   <si>
     <t>Category</t>
   </si>
@@ -449,13 +461,55 @@
   </si>
   <si>
     <t>**Total général**</t>
+  </si>
+  <si>
+    <t>compliance level facility</t>
+  </si>
+  <si>
+    <t>compliant</t>
+  </si>
+  <si>
+    <t>non compliant</t>
+  </si>
+  <si>
+    <t>partially compliant</t>
+  </si>
+  <si>
+    <t>max score facility</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>treshold</t>
+  </si>
+  <si>
+    <t>&gt;=80%</t>
+  </si>
+  <si>
+    <t>treshold score</t>
+  </si>
+  <si>
+    <t>max score department</t>
+  </si>
+  <si>
+    <t>&gt;=40%</t>
+  </si>
+  <si>
+    <t>&lt;40%</t>
+  </si>
+  <si>
+    <t>0-159</t>
+  </si>
+  <si>
+    <t>0-239</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,8 +517,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +554,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,14 +597,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D75"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,6 +975,9 @@
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,16 +1289,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1556,7 +1652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -1570,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -1584,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
@@ -1598,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>139</v>
       </c>
@@ -1612,7 +1708,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -1626,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>93</v>
       </c>
@@ -1640,7 +1736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -1654,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
@@ -1668,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>101</v>
       </c>
@@ -1682,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>103</v>
       </c>
@@ -1696,7 +1792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
@@ -1710,7 +1806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>106</v>
       </c>
@@ -1723,8 +1819,15 @@
       <c r="D60" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G60" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="15">
+        <v>400</v>
+      </c>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>109</v>
       </c>
@@ -1737,8 +1840,13 @@
       <c r="D61" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G61" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>111</v>
       </c>
@@ -1751,8 +1859,18 @@
       <c r="D62" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G62" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>112</v>
       </c>
@@ -1765,8 +1883,17 @@
       <c r="D63" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="11">
+        <v>320</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -1779,8 +1906,17 @@
       <c r="D64" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G64" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="11">
+        <v>160</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
@@ -1793,8 +1929,17 @@
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G65" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>121</v>
       </c>
@@ -1808,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>123</v>
       </c>
@@ -1822,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>125</v>
       </c>
@@ -1836,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
@@ -1849,8 +1994,15 @@
       <c r="D69" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="15">
+        <v>600</v>
+      </c>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
@@ -1863,8 +2015,13 @@
       <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G70" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
@@ -1877,8 +2034,17 @@
       <c r="D71" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G71" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
@@ -1891,8 +2057,17 @@
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="11">
+        <v>480</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>134</v>
       </c>
@@ -1905,8 +2080,17 @@
       <c r="D73" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G73" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" s="11">
+        <v>240</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>136</v>
       </c>
@@ -1919,8 +2103,17 @@
       <c r="D74" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>138</v>
       </c>
@@ -1934,21 +2127,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="5">
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>141</v>
       </c>
@@ -1962,7 +2155,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>142</v>
       </c>
@@ -1977,6 +2170,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="G70:I70"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D12 A14:D22 A13:C13 A25:D35 A23:C24 A37:D47 A36:C36 A53:D57 A48:C48 A59:D61 A58:C58 A63:D68 A62:C62 A70:D74 A69:C69 A78:C78 A75:C75 A49:D51 A76:C76 A77:C77" numberStoredAsText="1"/>
